--- a/temp_data/李向民/番剧数据_李向民.xlsx
+++ b/temp_data/李向民/番剧数据_李向民.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>番剧名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,12 +158,174 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>废柴女神莉丝塔要拯救超难模式的世界，虽然成功召唤出能力值超高的勇者——圣哉，但没想到他却谨慎得过分……「我要三副盔甲，一副拿来装备，一副备用，以及备用找不到时的备用。」不仅囤积异常的库存，还自主训练到满等为止，谨慎到连打史莱姆都全力以赴！如此谨慎的勇者和被他耍得团团转的女神，即将展开冒险旅程！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「架空」成为「现实」！这是一段，讲述我成为最棒的英雄的故事。一切都始于中国·轻庆市，一则「发光的婴儿」出生的新闻。自此之后，各地接连发现「超常」，但其中的原因一直没有被查明，时间就这么不断流逝。世界占总人口八成左右的人都拥有了某种「特异体质」，利用与生俱来的超常能力「个性」成为为非作歹的犯罪者。敌人不断地增多，同样拥有「个性」的另一批人则化身为「英雄」，抵挡在敌人和灾害的面前。一位少年·绿谷出久（通称臭久）也以成为英雄为目标，立志要考入诞生过众多著名英雄的雄英高中。然而，臭久他却是那剩余的两成人类中的一员，不具备任何特异体质，是一个「无个性」的吊车尾。在直面各色各样的人物以及众多试炼的过程中，臭久他为了成为了最棒的英雄...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我的英雄学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非常优秀的一个番剧，开创慎重流先河，是一个极少能够让我看番剧笑出来的番剧，诙谐气氛满分。
+首先这个番剧的画质我觉得很好，是一种带着光影效果的浮光掠影的背景，同时还有着坚实、美型的人设的番剧。
+第一集里面的“天界”很漂亮，美术功底扎实。
+然后这个人设方面也很好，慎重流的勇者是一种从来没见过的设定，而且这个番剧还把慎重这个特点给重视化了。
+非常好看。
+这个勇者，无论干什么事情都是非常的慎重，我觉得这个番剧挺适合走上社会的人观看。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫威与DC的发展也促进了整个『超级英雄』题材的发展。从最开始零八年《钢铁侠》现世，到现在的《复仇者联盟三》，十年已经过去了。在这十年，甚至十年前，无数超级英雄题材的作品出现在了人们的视野中，但又有几部被铭记？一部好的英雄影片并不好做。
+我接触《我的英雄学院》这部作品很晚，是在一八年假期里因为无聊才去看的。说实话我开始并没有对这部作品有太大的期待。而且作为一名受到过校园欺凌的人，咔酱前期的一些行为也确实让我不适。但是，如果这真的只是一部超级英雄的番剧，也许并不会那么吸引人，毕竟有《X-Man》系列和《Avenger》系列的前辈在，即使是在日漫中也有反传统超级英雄的《一拳超人》。在我个人看来，《我的英雄学院》这部作品吸引人的地方在于体现出少年少女的成长。
+在这部作品中，学院里每一名下小英雄的变化都有明显的提现。绿谷少年熟练掌握了one for all，轰总解开了自己的心结，茶茶勇于突破极限，咔酱也学会了救人质而不是在战斗中一味追求炸飞对手（漫画内容）。
+对于人物的刻画也是这部番剧的一个亮点，咔酱就是一个很好的例子嘛（笑。很多人，包括我，都不喜欢咔酱前期的表现，弹幕里也有很多关于咔酱的争（撕）吵（逼）。但是啊，但是，受众讨论这样的问题越激烈，不就越是证明了人物塑造的饱满立体吗。只有这样才能显示出他的变化啊。
+《我的英雄学院》大概是我粉上的第二部，非漫威的超级英雄主题作品了（第一部《一拳超人》）。剧情，人物塑造，都令人满意。看完之后，我也想去当一名HERO啊啊啊！
+《我的英雄学院》大概是我粉上的第二部，非漫威的超级英雄主题作品了（第一部《一拳超人》）。剧情，人物塑造，都令人满意。看完之后，我也想去当一名HERO啊啊啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血、校园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个勇者明明超强却过分慎重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全人类都在害怕着——普通人会毫无征兆地突然「燃烧」 ，变成操纵火焰的怪物「焰人」，并向周遭倾泻其极高破坏力的「人体自燃现象」 。与火焰的恐怖对抗的「特殊消防队」 ，他们的使命是解开人体自燃现象之谜并拯救人类！出于某个原因被称为「恶魔」的新入队少年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>森罗，以成为「英雄」为目标，与同伴们一起，投身于与「焰人」对抗的日子中！！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没看过原作漫画直接看的动画，最大的印象就是登场人物的人设和性格都十分鲜明且讨人喜欢，这个很棒。原先看PV以为是单纯的超人消防员救人的故事，没想到演着演着变成了要肃清内部的内斗剧情，不过问题也不大，这种世界观如果没有一个真正的反派组织，还不如看东方110。
+最让我惊喜的是，虽然本作中登场的各个人物的特殊能力都是与火焰挂钩的，但却没有因为这个局限住作者的创造力，二代消防官和三代消防官能力层面的不同也为战斗增添了许多精彩的博弈（特指8队突击5队的那集）没有说我不能起火就一定打不过会起火能力的，这类似于JOJO当中的战力表现，没有垃圾的能力只有不会用能力的人。（火绳的枪斗术真的太酷了）
+而作为主人公的森罗，作者也给他设计了一个十分符合他英雄人设的能力，说到英雄那当然就是飞踢啊！最简单最朴实也最实用最帅，作为一个特摄厨看到这样的角色真的很开心。而一紧张就会不由自主的咧嘴笑也是一大萌点，英雄哪怕是遇到再危险的情况也要带着笑容从容应对啊！
+缺点方面也不是没有，看的出来动画组的资金其实不是很够，因此把大部分的资源都给到了战斗场景，而有些文戏中远景的人物则能省则省，全给你做成无脸怪了，希望日后出圆盘的时候能修正一下吧。
+另外一点就是，战斗方面有点太过于偏袒主角了（当然原作就是这么设定的），我个人是希望能多一点其他队员的战斗描写，让大家都有风头出。
+总的来说这是一部非常值得一看的动画，有点类似于英雄学院，喜欢这种题材的千万不要错过了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血、科幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎炎消防队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大正时期，日本。心地善良的卖炭少年·炭治郎，有一天他的家人被鬼杀死了。而唯一幸存下来的妹妹——祢豆子变成了鬼。被绝望的现实打垮的炭治郎，为了寻找让妹妹变回人类的方法，决心朝着“鬼杀队”的道路前进。人与鬼交织的悲哀的兄妹的故事，现在开始！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼灭是一部很慢热的漫画，不过这也是大部分热血漫的缺点，如果你以前看多了火影海贼之类的，就觉绝对不会觉得剧情慢，当初的民工漫发展有多慢，心里都有数。一天的剧情就可以打上几个月，还有中间的回忆等等之类的
+现在的人看多了快餐番就逐渐失去了耐心，我相信现在看鬼灭觉得慢的人以前应该都是看过三大民工漫，为什么以前不觉得枯燥呢，我敢信那些人回去看民工漫一样看不下去，哪怕以前他们自己觉得多好看我觉得他们一定也很难看看的下去。
+鬼灭是一部温柔的漫画，也是得到了许多业界大佬肯定的漫画，连蘑菇和富坚老贼都大力捧，他们肯定比我们这些人更懂的欣赏，所以觉得发现慢的人，希望能回到以前慢慢看民工漫的时候，那时候没有进度条还不是看的津津有味，细心的评价这部漫画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼灭之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本作以名门料理学校“远月学园”为舞台，描绘了家里经营餐馆的幸平创真，以超越父亲城一郎为激励而日复一日地磨练自己的厨艺的故事。在初中毕业后考虑继承家业的他，却突然听闻父亲要关店数年并前往海外的消息。而后，创真在城一郎的命令下进入“远月学园”高中部就读，一部围绕着小镇上定食屋主人儿子的料理美食类故事由此开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园、热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食戟之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食戟之灵可以说是我心目中最最好看的美食番了！
+作为美食番，它在美食的作画上可谓下足了心思，用足了经费，它的美食，是让我看了就流口水的。
+作为热血少年漫，它把决定厨师身份地位的“食戟”营造出了热血的氛围，并通过镜头的切换，bgm的应景使人完美代入其中，做到了很多战斗漫都做不到的事。
+我记得在其他地方看到过一个评论，说《食戟之灵》的厨师跟混黑道的一样，太夸张了吧。我倒认为，这种看似夸张的设定实则完美营造出了热血的氛围。使人入迷。
+紧凑的情节，出色的作画，出色的bgm，讨喜的人设，热血的氛围，只要你不讨厌卖肉（并不过分，这里的卖肉倒更像是体现食物美味的一种手段，而不是为了卖福利），那么我非常推荐补下这部食戟之灵。耐下心来看一集，你也会入坑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md1559/?spm_id_from=666.25.b_6d656469615f6d6f64756c65.2#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md22718131/?spm_id_from=666.25.b_6d656469615f6d6f64756c65.2#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md28221335/?spm_id_from=666.25.b_6d656469615f6d6f64756c65.2#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md7452#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md28222736/?spm_id_from=666.25.b_6d656469615f6d6f64756c65.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +357,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,10 +397,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -236,9 +415,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,6 +440,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="这个勇者明明超强却过分慎重"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3981450" y="1085850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,19 +754,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -544,7 +780,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -556,7 +792,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -568,7 +804,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -580,7 +816,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -592,7 +828,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,72 +860,168 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="7" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1">
+        <v>371</v>
+      </c>
+      <c r="H7" s="1">
+        <v>271</v>
+      </c>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5740</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4830</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3599</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1740</v>
+      </c>
+      <c r="I9" s="1">
+        <v>430</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6083</v>
+      </c>
+      <c r="I10" s="1">
+        <v>508</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="1:10" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6935</v>
+      </c>
+      <c r="I11" s="1">
+        <v>363</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" location="detail"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3" location="detail"/>
+    <hyperlink ref="F10" r:id="rId4" location="detail"/>
+    <hyperlink ref="F11" r:id="rId5" location="detail"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>